--- a/control de sistema asistencia.xlsx
+++ b/control de sistema asistencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SISTEMA_KAMATERA\Backend\Asistenciabackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC02FEF2-E15F-4524-94C7-BBFCC000DEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend" sheetId="1" r:id="rId1"/>
@@ -20,22 +21,32 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backend!$G$1:$H$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ivan Atanacio</author>
   </authors>
   <commentList>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0" shapeId="0">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="115">
   <si>
     <t>procediminetos lmacenados</t>
   </si>
@@ -481,12 +492,15 @@
   </si>
   <si>
     <t>sp</t>
+  </si>
+  <si>
+    <t>&lt;DataSet&gt;&lt;tbl&gt;&lt;codigomenu&gt;0001&lt;/codigomenu&gt;&lt;/tbl&gt;&lt;/DataSet&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,12 +737,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,11 +793,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,11 +805,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,7 +841,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -865,7 +885,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -914,6 +940,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -979,6 +1008,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1042,6 +1074,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1107,6 +1142,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1170,6 +1208,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1235,6 +1276,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1298,6 +1342,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1363,6 +1410,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1427,6 +1477,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1490,6 +1543,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1557,6 +1613,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1611,6 +1670,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1660,6 +1722,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1724,15 +1789,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="procediminetos lmacenados"/>
-    <tableColumn id="6" name="implementado en C# web api"/>
-    <tableColumn id="2" name="implementado en backend"/>
-    <tableColumn id="3" name="implementa en frontend"/>
-    <tableColumn id="4" name="implementar para negocio"/>
-    <tableColumn id="5" name="Columna1" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="procediminetos lmacenados"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="implementado en C# web api"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="implementado en backend"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="implementa en frontend"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="implementar para negocio"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Columna1" dataDxfId="0">
       <calculatedColumnFormula>EXACT(Tabla1[[#This Row],[procediminetos lmacenados]],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2002,11 +2067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
@@ -2621,7 +2686,7 @@
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="22" t="b">
+      <c r="F25" s="21" t="b">
         <f>EXACT(Tabla1[[#This Row],[procediminetos lmacenados]],G25)</f>
         <v>0</v>
       </c>
@@ -2636,7 +2701,7 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="22" t="b">
+      <c r="F26" s="21" t="b">
         <f>EXACT(Tabla1[[#This Row],[procediminetos lmacenados]],G26)</f>
         <v>0</v>
       </c>
@@ -2651,7 +2716,7 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="22" t="b">
+      <c r="F27" s="21" t="b">
         <f>EXACT(Tabla1[[#This Row],[procediminetos lmacenados]],G27)</f>
         <v>0</v>
       </c>
@@ -2666,7 +2731,7 @@
       <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="22" t="b">
+      <c r="F28" s="21" t="b">
         <f>EXACT(Tabla1[[#This Row],[procediminetos lmacenados]],G28)</f>
         <v>0</v>
       </c>
@@ -2681,7 +2746,7 @@
       <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H29" t="s">
@@ -2695,7 +2760,7 @@
       <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>110</v>
       </c>
       <c r="H30" t="s">
@@ -2703,7 +2768,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:H30">
+  <autoFilter ref="G1:H30" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="asistencia"/>
@@ -2718,11 +2783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2745,11 +2810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,6 +2930,9 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2952,7 +3020,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3263,14 +3331,14 @@
       </c>
     </row>
     <row r="29" spans="2:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
